--- a/NEW_alignment/GGT5.xlsx
+++ b/NEW_alignment/GGT5.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\Documents\TMR観察\NEW_alignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E1CC9C-24A0-4A89-9521-BE355E7D3E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB986E04-235A-44E5-BC94-476DFACE262F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="START" sheetId="1" r:id="rId1"/>
+    <sheet name="END" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>M</t>
     <phoneticPr fontId="2"/>
@@ -84,12 +85,52 @@
     <t>hy_sum</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残基数(0~)</t>
+    <rPh sb="0" eb="3">
+      <t>ザンキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アミノ酸残基</t>
+    <rPh sb="3" eb="4">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>疎水性値</t>
+    <rPh sb="0" eb="4">
+      <t>ソスイセイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +152,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -127,7 +176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,6 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E54568-95E8-488E-B33D-5063AAA87740}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -490,132 +542,131 @@
     <col min="2" max="21" width="4.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>12</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>14</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>17</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>18</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>19</v>
       </c>
-      <c r="U1" s="2">
-        <v>20</v>
-      </c>
+      <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>-15</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>-14</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>-13</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>-12</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>-11</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>-10</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>-9</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>-8</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>-7</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>-6</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>-5</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>-4</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>-3</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>-2</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <v>-1</v>
       </c>
-      <c r="R2" s="2">
+      <c r="S2" s="2">
         <v>0</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>1</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="2">
         <v>2</v>
       </c>
-      <c r="U2" s="2">
-        <v>3</v>
-      </c>
+      <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,41 +728,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="B4" s="2">
         <v>1.9</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>1.8</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>-0.9</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>-0.4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>-3.2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>-4.5</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>1.8</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>-0.7</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>4.2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>2.5</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <v>3.8</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="4">
         <v>4.2</v>
       </c>
       <c r="N4" s="2">
@@ -739,11 +790,11 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <f>B4+C4</f>
         <v>3.7</v>
       </c>
@@ -787,7 +838,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -820,49 +871,473 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <f>E5-C5</f>
         <v>-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <f>F5-D5</f>
         <v>-4.5</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" ref="G6:M6" si="1">G5-E5</f>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6:N6" si="1">G5-E5</f>
         <v>-6.4</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="6">
         <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="6">
         <f t="shared" si="1"/>
         <v>1.2999999999999998</v>
       </c>
+      <c r="N6" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="K7" s="5"/>
+    <row r="7" spans="1:22">
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="K8" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B49026-BD6F-4B9E-B906-B65F1E240224}">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="5" width="4.5" style="2" customWidth="1"/>
+    <col min="6" max="22" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2">
+        <v>28</v>
+      </c>
+      <c r="O1" s="2">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>31</v>
+      </c>
+      <c r="R1" s="2">
+        <v>32</v>
+      </c>
+      <c r="S1" s="2">
+        <v>33</v>
+      </c>
+      <c r="T1" s="2">
+        <v>34</v>
+      </c>
+      <c r="U1" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2">
+        <v>12</v>
+      </c>
+      <c r="P2" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2">
+        <v>15</v>
+      </c>
+      <c r="S2" s="2">
+        <v>16</v>
+      </c>
+      <c r="T2" s="2">
+        <v>17</v>
+      </c>
+      <c r="U2" s="2">
+        <v>18</v>
+      </c>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="O4" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:E5" si="0">B4+C4</f>
+        <v>3.4</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5" si="1">E4+F4</f>
+        <v>8</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5" si="2">F4+G4</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5" si="3">G4+H4</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" ref="I5" si="4">H4+I4</f>
+        <v>8.4</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" ref="J5" si="5">I4+J4</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" ref="K5" si="6">J4+K4</f>
+        <v>5.6</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5" si="7">K4+L4</f>
+        <v>3.6</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5" si="8">L4+M4</f>
+        <v>6</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5" si="9">M4+N4</f>
+        <v>8</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" ref="O5" si="10">N4+O4</f>
+        <v>3</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5" si="11">O4+P4</f>
+        <v>-2.4000000000000004</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5" si="12">P4+Q4</f>
+        <v>-6.1</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5" si="13">Q4+R4</f>
+        <v>-8</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" ref="S5" si="14">R4+S4</f>
+        <v>-1.7</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" ref="T5" si="15">S4+T4</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" ref="U5" si="16">T4+U4</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <f>-E5+C5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:P6" si="17">-F5+D5</f>
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="17"/>
+        <v>-5.2999999999999989</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="17"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="17"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="17"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="17"/>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="17"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="17"/>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="17"/>
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="17"/>
+        <v>10.4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/NEW_alignment/GGT5.xlsx
+++ b/NEW_alignment/GGT5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\Documents\TMR観察\NEW_alignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB986E04-235A-44E5-BC94-476DFACE262F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B2B2D3-7682-4615-B588-A0FF70380D1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>M</t>
     <phoneticPr fontId="2"/>
@@ -116,6 +116,25 @@
     <rPh sb="4" eb="6">
       <t>ザンキ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>疎水性値</t>
+    <rPh sb="0" eb="4">
+      <t>ソスイセイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1~</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AA</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -533,17 +552,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E54568-95E8-488E-B33D-5063AAA87740}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="21" width="4.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -608,316 +630,324 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-15</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-14</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-13</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-12</v>
-      </c>
-      <c r="H2" s="2">
-        <v>-11</v>
-      </c>
-      <c r="I2" s="2">
-        <v>-10</v>
-      </c>
-      <c r="J2" s="2">
-        <v>-9</v>
-      </c>
-      <c r="K2" s="2">
-        <v>-8</v>
-      </c>
-      <c r="L2" s="2">
-        <v>-7</v>
-      </c>
-      <c r="M2" s="2">
-        <v>-6</v>
-      </c>
-      <c r="N2" s="2">
-        <v>-5</v>
-      </c>
-      <c r="O2" s="2">
-        <v>-4</v>
-      </c>
-      <c r="P2" s="2">
-        <v>-3</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>-2</v>
-      </c>
-      <c r="R2" s="2">
-        <v>-1</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="B3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-13</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-11</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-8</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-7</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-6</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="T3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="U3" s="2">
         <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-0.9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-0.4</v>
-      </c>
-      <c r="F4" s="4">
-        <v>-3.2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-4.5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="I4" s="4">
-        <v>-0.7</v>
-      </c>
-      <c r="J4" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="L4" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="M4" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="O4" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="P4" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="R4" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="S4" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="T4" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="U4" s="2">
-        <v>3.8</v>
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.9</v>
       </c>
       <c r="C5" s="4">
-        <f>B4+C4</f>
-        <v>3.7</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:U5" si="0">C4+D4</f>
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.3</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>-3.6</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>-7.7</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="0"/>
-        <v>-2.7</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1.8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-3.2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="J5" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3.8</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>-0.4</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>4.2</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>-0.4</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>-0.4</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <f>B5+C5</f>
+        <v>3.7</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:U6" si="0">C5+D5</f>
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.3</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.6</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.7</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.7</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
-        <f>E5-C5</f>
+      <c r="E7" s="4">
+        <f>E6-C6</f>
         <v>-5</v>
       </c>
-      <c r="F6" s="6">
-        <f>F5-D5</f>
+      <c r="F7" s="6">
+        <f>F6-D6</f>
         <v>-4.5</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" ref="G6:N6" si="1">G5-E5</f>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7:N7" si="1">G6-E6</f>
         <v>-6.4</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H7" s="6">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K7" s="6">
         <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L7" s="6">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M7" s="6">
         <f t="shared" si="1"/>
         <v>1.2999999999999998</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N7" s="6">
         <f t="shared" si="1"/>
         <v>1.7000000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:22">
       <c r="K8" s="4"/>
@@ -933,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B49026-BD6F-4B9E-B906-B65F1E240224}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
